--- a/conformer_test/sorted_combined.xlsx
+++ b/conformer_test/sorted_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,17 +577,17 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[H][C]([H])([C](=[O])[O-])[N+]([H])([C]([H])([H])[C](=[O])[O-])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C](=[O])[O-])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C](=[O])[O-])[C]([H])([H])[C](=[O])[O-]</t>
+          <t>[H][C]([H])([C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[H])[N+]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[H][C]([H])([C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[H])[N+]([H])([H])[H]</t>
+          <t>[H][C]([H])([H])[C]([H])([H])[N]([C](=[S])[S][S][C](=[S])[N]([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,17 +757,17 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[H][C]([H])([H])[C]([H])([H])[N]([C](=[S])[S][S][C](=[S])[N]([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][C]([H])([O][N+](=[O])[O-])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[O][N+](=[O])[O-])[C]([H])([H])[C]([H])([H])[O][N+](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,17 +837,17 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[H][C]([H])([O][N+](=[O])[O-])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[O][N+](=[O])[O-])[C]([H])([H])[C]([H])([H])[O][N+](=[O])[O-]</t>
+          <t>[H][C]([H])([O][S](=[O])(=[O])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[O][S](=[O])(=[O])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,17 +937,17 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[H][C]([H])([O][S](=[O])(=[O])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[O][S](=[O])(=[O])[C]([H])([H])[H]</t>
+          <t>[H][C]1=[C]([C]([H])([H])[H])[N]([H])[c]2[c]([H])[c]([H])[c]([H])[c]([O][C]([H])([H])[C@@]([H])([O][C](=[O])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]21</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,17 +1027,17 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[H][C]1=[C]([C]([H])([H])[H])[N]([H])[c]2[c]([H])[c]([H])[c]([H])[c]([O][C]([H])([H])[C@@]([H])([O][C](=[O])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]21</t>
+          <t>[H][C]1=[N][C]([C]([H])([H])[S][C]([H])([H])[C]([H])([H])[N]([H])/[C](=[N]/[C]#[N])[N]([H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]1[H]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,17 +1127,17 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[H][C]1=[N][C]([C]([H])([H])[S][C]([H])([H])[C]([H])([H])[N]([H])/[C](=[N]/[C]#[N])[N]([H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]1[H]</t>
+          <t>[H][C]1=[N][C]2=[C]([N]=[C]([N]([H])[H])[N]([H])[C]2=[O])[N]1[C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C](=[O])[C@]([H])([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,17 +1217,17 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[H][C]1=[N][C]2=[C]([N]=[C]([N]([H])[H])[N]([H])[C]2=[O])[N]1[C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C](=[O])[C@]([H])([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]([H])([H])[H]</t>
+          <t>[H][C]1=[N][N]([C@@]2([H])[O][C@@]([H])([C]([H])([H])[O][C](=[O])[C]([H])([H])[H])[C@@]([H])([O][C](=[O])[C]([H])([H])[H])[C@]2([H])[O][C](=[O])[C]([H])([H])[H])[C](=[O])[N]([H])[C]1=[O]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[H][C]1=[N][N]([C@@]2([H])[O][C@@]([H])([C]([H])([H])[O][C](=[O])[C]([H])([H])[H])[C@@]([H])([O][C](=[O])[C]([H])([H])[H])[C@]2([H])[O][C](=[O])[C]([H])([H])[H])[C](=[O])[N]([H])[C]1=[O]</t>
+          <t>[H][N]([H])[C](=[O])[O][C]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[O][C](=[O])[N]([H])[H])[C@]([H])([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1417,17 +1417,17 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[H][N]([H])[C](=[O])[O][C]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[O][C](=[O])[N]([H])[H])[C@]([H])([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][O][C@@](/[C]([H])=[C](\[H])[C@@]1([H])[C@@]([H])([C]([H])([H])[C]([H])=[C]([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[O-])[C@@]([H])([O][H])[C]([H])([H])[C@@]1([H])[O][H])([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1487,27 +1487,27 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[H][O][C@@](/[C]([H])=[C](\[H])[C@@]1([H])[C@@]([H])([C]([H])([H])[C]([H])=[C]([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[O-])[C@@]([H])([O][H])[C]([H])([H])[C@@]1([H])[O][H])([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][O][C@@]([H])([C@]([H])([O][H])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[H][O][C@@](/[C]([H])=[C](\[H])[C@@]1([H])[C@@]([H])([C]([H])([H])[C]([H])=[C]([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[O-])[C@@]([H])([O][H])[C]([H])([H])[C@@]1([H])[O][H])([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][O][C@@]([H])([C@]([H])([O][H])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1587,27 +1587,27 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[H][O][C@@]([H])([C@]([H])([O][H])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl]</t>
+          <t>[H][O][C@@]([c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H])([C]([H])([H])[C]([H])([H])[N+]([C]([H])([H])[C]([H])([H])[H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]1([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]1([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[H][O][C@@]([H])([C@]([H])([O][H])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl])[C@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[Cl]</t>
+          <t>[H][O][C@@]([c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H])([C]([H])([H])[C]([H])([H])[N+]([C]([H])([H])[C]([H])([H])[H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]1([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]1([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1687,27 +1687,27 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[H][O][C@@]([c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H])([C]([H])([H])[C]([H])([H])[N+]([C]([H])([H])[C]([H])([H])[H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]1([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]1([H])[H]</t>
+          <t>[H][O][C@]([H])([C]([H])([H])[O][C]1=[N][S][N]=[C]1[N]1[C]([H])([H])[C]([H])([H])[O][C]([H])([H])[C]1([H])[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[H][O][C@@]([c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H])([C]([H])([H])[C]([H])([H])[N+]([C]([H])([H])[C]([H])([H])[H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]1([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]1([H])[H]</t>
+          <t>[H][O][C@]([H])([C]([H])([H])[O][C]1=[N][S][N]=[C]1[N]1[C]([H])([H])[C]([H])([H])[O][C]([H])([H])[C]1([H])[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -1787,27 +1787,27 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[H][O][C@]([H])([C]([H])([H])[O][C]1=[N][S][N]=[C]1[N]1[C]([H])([H])[C]([H])([H])[O][C]([H])([H])[C]1([H])[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
+          <t>[H][O][C@]([H])([C]([H])([H])[O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]1[H])[C]([H])([H])[N+]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[H][O][C@]([H])([C]([H])([H])[O][C]1=[N][S][N]=[C]1[N]1[C]([H])([H])[C]([H])([H])[O][C]([H])([H])[C]1([H])[H])[C]([H])([H])[N+]([H])([H])[C]([C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
+          <t>[H][O][C@]([H])([C]([H])([H])[O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]1[H])[C]([H])([H])[N+]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1877,27 +1877,27 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[H][O][C@]([H])([C]([H])([H])[O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]1[H])[C]([H])([H])[N+]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C@]([H])([C](=[O])[O][C]1([H])[C]([H])([H])[C@@]2([H])[C@@]3([H])[O][C@@]3([H])[C@@]([H])([C]1([H])[H])[N+]2([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[H][O][C@]([H])([C]([H])([H])[O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[O][C]([H])([H])[C]([H])([H])[O][C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]1[H])[C]([H])([H])[N+]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C@]([H])([C](=[O])[O][C]1([H])[C]([H])([H])[C@@]2([H])[C@@]3([H])[O][C@@]3([H])[C@@]([H])([C]1([H])[H])[N+]2([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1977,27 +1977,27 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C@]([H])([C](=[O])[O][C]1([H])[C]([H])([H])[C@@]2([H])[C@@]3([H])[O][C@@]3([H])[C@@]([H])([C]1([H])[H])[N+]2([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][O][C]([H])([H])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C@]([H])([C]([H])([H])[O][H])[C]([H])([H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C@]([H])([C](=[O])[O][C]1([H])[C]([H])([H])[C@@]2([H])[C@@]3([H])[O][C@@]3([H])[C@@]([H])([C]1([H])[H])[N+]2([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]1[c]([H])[c]([H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][O][C]([H])([H])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C@]([H])([C]([H])([H])[O][H])[C]([H])([H])[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2077,27 +2077,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C@]([H])([C]([H])([H])[O][H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C@]([H])([N]([H])[c]1[c]([H])[c]([H])[n+]([H])[c]2[c]([H])[c]([Cl])[c]([H])[c]([H])[c]12)[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C@]([H])([C]([H])([H])[O][H])[C]([H])([H])[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C@]([H])([N]([H])[c]1[c]([H])[c]([H])[n+]([H])[c]2[c]([H])[c]([Cl])[c]([H])[c]([H])[c]12)[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2177,27 +2177,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C@]([H])([N]([H])[c]1[c]([H])[c]([H])[n+]([H])[c]2[c]([H])[c]([Cl])[c]([H])[c]([H])[c]12)[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C]([H])([H])[N]([C]1=[N][C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])=[C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[O]1)[C]([H])([H])[C]([H])([H])[O][H]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C@]([H])([N]([H])[c]1[c]([H])[c]([H])[n+]([H])[c]2[c]([H])[c]([Cl])[c]([H])[c]([H])[c]12)[C]([H])([H])[H]</t>
+          <t>[H][O][C]([H])([H])[C]([H])([H])[N]([C]1=[N][C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])=[C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[O]1)[C]([H])([H])[C]([H])([H])[O][H]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2277,27 +2277,27 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C]([H])([H])[N]([C]1=[N][C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])=[C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[O]1)[C]([H])([H])[C]([H])([H])[O][H]</t>
+          <t>[H][O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[C]([H])([H])[C@@]([H])([C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][H])[c]([O][H])[c]2[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[H][O][C]([H])([H])[C]([H])([H])[N]([C]1=[N][C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])=[C]([c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[O]1)[C]([H])([H])[C]([H])([H])[O][H]</t>
+          <t>[H][O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[C]([H])([H])[C@@]([H])([C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][H])[c]([O][H])[c]2[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -2377,27 +2377,27 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[C]([H])([H])[C@@]([H])([C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][H])[c]([O][H])[c]2[H])[c]([H])[c]1[H]</t>
+          <t>[H][O][c]1[c]([H])[c]([H])[c]2[c]([c]1[H])[C]([H])([H])[C]([H])([H])[C@]1([H])[C@]3([H])[C]([H])([H])[C]([H])([H])[C@@]([H])([O][C](=[O])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C@@]3([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C@@]21[H]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([H])[c]([C]([H])([H])[C]([H])([H])[C@@]([H])([C]([H])([H])[H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][H])[c]([O][H])[c]2[H])[c]([H])[c]1[H]</t>
+          <t>[H][O][c]1[c]([H])[c]([H])[c]2[c]([c]1[H])[C]([H])([H])[C]([H])([H])[C@]1([H])[C@]3([H])[C]([H])([H])[C]([H])([H])[C@@]([H])([O][C](=[O])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C@@]3([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C@@]21[H]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -2477,27 +2477,27 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([H])[c]2[c]([c]1[H])[C]([H])([H])[C]([H])([H])[C@]1([H])[C@]3([H])[C]([H])([H])[C]([H])([H])[C@@]([H])([O][C](=[O])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C@@]3([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C@@]21[H]</t>
+          <t>[H][O][c]1[c]([H])[c]([O][H])[c]([H])[c]([C@@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N]2[C]([H])=[N][C]3=[C]2[C](=[O])[N]([C]([H])([H])[H])[C](=[O])[N]3[C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([H])[c]2[c]([c]1[H])[C]([H])([H])[C]([H])([H])[C@]1([H])[C@]3([H])[C]([H])([H])[C]([H])([H])[C@@]([H])([O][C](=[O])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C@@]3([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C@@]21[H]</t>
+          <t>[H][O][c]1[c]([H])[c]([O][H])[c]([H])[c]([C@@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N]2[C]([H])=[N][C]3=[C]2[C](=[O])[N]([C]([H])([H])[H])[C](=[O])[N]3[C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2537,21 +2537,21 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([O][H])[c]([H])[c]([C@@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N]2[C]([H])=[N][C]3=[C]2[C](=[O])[N]([C]([H])([H])[H])[C](=[O])[N]3[C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[H][O][c]1[c]([H])[c]([O][H])[c]([H])[c]([C@@]([H])([O][H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N]2[C]([H])=[N][C]3=[C]2[C](=[O])[N]([C]([H])([H])[H])[C](=[O])[N]3[C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
@@ -2611,13 +2611,13 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[H][S][C]([H])([H])[C@@]([H])([C](=[O])[N]([H])[C]([H])([H])[C](=[O])[O-])[N]([H])[C](=[O])[C]([H])([H])[C]([H])([H])[C@@]([H])([C](=[O])[O-])[N+]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -2637,87 +2637,87 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([C]([H])([H])[H])[c]([N]([H])[C](=[O])[C@]([H])([C]([H])([H])[C]([H])([H])[H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -2737,87 +2737,87 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([Cl])[c]([H])[c]([N]2[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[N]3[N]=[C]([C]([H])([H])[C]([H])([H])[H])[N]([C]([H])([H])[C]([H])([H])[H])[C]3=[O])[C]([H])([H])[C]2([H])[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -2837,1539 +2837,1409 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]([H])([O][c]2[c]([H])[c]([H])[c]([C]([F])([F])[F])[c]([H])[c]2[H])[C]([H])([H])[C]([H])([H])[N+]([H])([H])[C]([H])([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C@@]2([H])[C]([C](=[O])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])=[C]([C]([H])([H])[H])[N]=[C]([C]([H])([H])[H])[C]2([H])[C](=[O])[O][C]([H])([H])[H])[c]([N+](=[O])[O-])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([C]2=[N][O][C]([N]([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])=[N]2)[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]2([H])[C]([H])([H])[c]3[c]([H])[c]([H])[c]([H])[c]([H])[c]3[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]([N]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[C]([H])([H])[C@]([H])([C]([H])([H])[O][C]([H])([H])[C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[N+]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[C]2([H])[H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[c]2[c]([C]([H])([H])[C@]([H])([C](=[O])[O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C@@]3([H])[O][C]([H])([H])[C]([H])([H])[C]3([H])[H])[c]([H])[c]([H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([H])[n+]([H])[c]([N]([C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[O][c]2[c]([H])[c]([H])[c]([C]([H])([H])[C@]3([H])[S][C](=[O])[N]([H])[C]3=[O])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([O][C]([C](=[O])[O][C]([H])([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([C]([H])([H])[H])[C]([H])([H])[H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[Cl]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([C](=[O])[N]([H])[C]([H])([H])[C@@]2([H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[N+]2([H])[C]([H])([H])[C]([H])([H])[H])[c]1[O][C]([H])([H])[H]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([H])[c]([S](=[O])(=[O])[N]([C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[C]([H])([H])[C]([H])([H])[C]([H])([H])[H])[c]([H])[c]([H])[c]1[C](=[O])[O-]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[H][c]1[c]([O][C]([H])([H])[C]([H])([H])[N+]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([C]([H])([C]([H])([H])[H])[C]([H])([H])[H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]1[C]([H])([H])[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[S@@](=[O])[C]2=[N][c]3[c]([H])[c]([O][C]([H])([F])[F])[c]([H])[c]([H])[c]3[N]2[H])[c]([O][C]([H])([H])[H])[c]([O][C]([H])([H])[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([H])[c]2[c]([H])[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]2[H])[c]2[c]([H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([O][C]([H])([H])[C]([H])([H])[H])[c]([H])[c]2[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([C]([H])([c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]2[c]([H])[c]([H])[c]([O][C](=[O])[C]([H])([H])[H])[c]([H])[c]2[H])[c]([H])[c]([H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
+          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B381" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>7</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>8</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>9</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([H])[c]([H])[c]([C](=[O])[N]([H])[N]([H])[C]([H])([H])[C]([H])([H])[C](=[O])[N]([H])[C]([H])([H])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[c]1[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>0</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>1</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>2</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>3</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>4</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>5</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>6</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>7</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>8</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>9</v>
-      </c>
-      <c r="B394" t="inlineStr">
         <is>
           <t>[H][c]1[n][c]([N]([H])[S](=[O])(=[O])[c]2[c]([H])[c]([H])[c]([H])[c]([H])[c]2[H])[n][c]([H])[c]1[O][C]([H])([H])[C]([H])([H])[O][C]([H])([H])[H]</t>
         </is>
